--- a/COSAS/Listado OFT.xlsx
+++ b/COSAS/Listado OFT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARTIN\Documents\GitHub\ProgramaPami\COSAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\PAMI\ProgramaPami\COSAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="9288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="172">
   <si>
     <t>20 12262150 3</t>
   </si>
@@ -974,18 +974,18 @@
       <selection activeCell="B1" sqref="B1:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="255" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="7" max="255" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>111</v>
@@ -1000,7 +1000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
         <v>112</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
         <v>143</v>
@@ -1031,7 +1031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>113</v>
@@ -1046,7 +1046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>114</v>
@@ -1061,7 +1061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>144</v>
@@ -1076,7 +1076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>115</v>
@@ -1091,7 +1091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>116</v>
@@ -1106,7 +1106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
         <v>145</v>
@@ -1121,7 +1121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>161</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>162</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>163</v>
@@ -1168,7 +1168,7 @@
       <c r="F12" s="9"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
         <v>164</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
         <v>165</v>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
         <v>166</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
         <v>117</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>146</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>147</v>
@@ -1263,7 +1263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
         <v>118</v>
@@ -1278,7 +1278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="9" t="s">
         <v>119</v>
@@ -1293,7 +1293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
         <v>148</v>
@@ -1308,7 +1308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="9" t="s">
         <v>120</v>
@@ -1323,7 +1323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="9" t="s">
         <v>121</v>
@@ -1338,7 +1338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="9" t="s">
         <v>167</v>
@@ -1353,7 +1353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
         <v>122</v>
@@ -1368,7 +1368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="9" t="s">
         <v>123</v>
@@ -1383,7 +1383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="9" t="s">
         <v>124</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="9" t="s">
         <v>125</v>
@@ -1414,7 +1414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="9" t="s">
         <v>126</v>
@@ -1429,7 +1429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="9" t="s">
         <v>127</v>
@@ -1444,7 +1444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>128</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="9" t="s">
         <v>129</v>
@@ -1473,7 +1473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
         <v>110</v>
@@ -1488,7 +1488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="9" t="s">
         <v>149</v>
@@ -1503,7 +1503,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="9" t="s">
         <v>130</v>
@@ -1518,7 +1518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9" t="s">
         <v>131</v>
@@ -1533,7 +1533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="9" t="s">
         <v>132</v>
@@ -1548,7 +1548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="10" t="s">
         <v>150</v>
@@ -1563,7 +1563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>133</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="9" t="s">
         <v>151</v>
@@ -1592,7 +1592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="9" t="s">
         <v>152</v>
@@ -1607,7 +1607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="9" t="s">
         <v>134</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="9" t="s">
         <v>135</v>
@@ -1638,7 +1638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="9" t="s">
         <v>136</v>
@@ -1653,7 +1653,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="9" t="s">
         <v>153</v>
@@ -1668,7 +1668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="9" t="s">
         <v>168</v>
@@ -1683,7 +1683,7 @@
         <v>26723262</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="9" t="s">
         <v>154</v>
@@ -1698,7 +1698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="9" t="s">
         <v>155</v>
@@ -1713,7 +1713,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="9" t="s">
         <v>156</v>
@@ -1728,7 +1728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="9" t="s">
         <v>157</v>
@@ -1743,7 +1743,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="9" t="s">
         <v>158</v>
@@ -1758,7 +1758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>137</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="9" t="s">
         <v>138</v>
@@ -1787,7 +1787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="9" t="s">
         <v>159</v>
@@ -1802,7 +1802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="9" t="s">
         <v>139</v>
@@ -1817,7 +1817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="9" t="s">
         <v>140</v>
@@ -1832,7 +1832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="9" t="s">
         <v>141</v>
@@ -1847,7 +1847,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="9" t="s">
         <v>160</v>
@@ -1862,7 +1862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="9" t="s">
         <v>142</v>
@@ -1878,93 +1878,93 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="8"/>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="D62" s="15"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
       <c r="D65" s="19"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="3"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="4"/>
       <c r="D68" s="21"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="E79" s="1"/>
     </row>
@@ -1981,21 +1981,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="263" width="11.42578125" customWidth="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="263" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D2" s="1">
         <v>2</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D3" s="1">
         <v>3</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D4" s="1">
         <v>4</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>6</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>7</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>8</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>9</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>10</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>11</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>12</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>13</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>14</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>15</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>16</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>17</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>18</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>19</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>20</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>21</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>22</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>23</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>24</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>25</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>26</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>27</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
         <v>28</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>29</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>30</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>31</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
         <v>32</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>33</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>34</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>35</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>36</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>37</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>38</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>39</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>40</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>41</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>42</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>43</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>44</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>45</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>46</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>47</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>48</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>49</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>50</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D51" s="1">
         <v>51</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>52</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>53</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D54" s="1">
         <v>54</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D55" s="1">
         <v>55</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D56" s="1">
         <v>56</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D57" s="1">
         <v>57</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D58" s="1">
         <v>58</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D59" s="1">
         <v>59</v>
       </c>
@@ -3607,15 +3607,1021 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
+    <col min="1" max="256" width="11.44140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="9">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="9">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="9">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="9">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="9">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="9">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="9">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="9">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="20">
+        <v>17555133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="9">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="20">
+        <v>26773266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="9">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="20">
+        <v>18315002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="9">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="20">
+        <v>18231223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="9">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="20">
+        <v>24378011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="9">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="20">
+        <v>26282019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="9">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="9">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="9">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="9">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="9">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="9">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="9">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="9">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="9">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="9">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="9">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="9">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="9">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="9">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="9">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="9">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="9">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="9">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="9">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="9">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="9">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="9">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="9">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="9">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="9">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="9">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1">
+        <v>66</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="9">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="9">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="20">
+        <v>26723262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="9">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="9">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="9">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="9">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="9">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="9">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="9">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="9">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="9">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="9">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="9">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="9">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="9">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>